--- a/Software Requirements/Travel_SIQ.xlsx
+++ b/Software Requirements/Travel_SIQ.xlsx
@@ -245,7 +245,7 @@
     <t>Rating_Sys_4</t>
   </si>
   <si>
-    <t>Do you aprove that there is no constraint on the number of characters in the feedback text field?</t>
+    <t>Do you aprove that there is no constraint on the number of characters in the feedback text field? and after recieving a feedback A message Should appear “Thanks for your feedback"</t>
   </si>
   <si>
     <t xml:space="preserve">Yomna </t>
@@ -275,7 +275,7 @@
     <t>Do you approve that the user ID will be auto generated number?</t>
   </si>
   <si>
-    <t>Admn_feat_2</t>
+    <t>Admn_feat_1</t>
   </si>
   <si>
     <t>Const_3</t>
